--- a/Tablets Distribution - Maseru.xlsx
+++ b/Tablets Distribution - Maseru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,17 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HGC7VVHT</t>
+  </si>
+  <si>
+    <t>BAHLAKOANA KHUELE</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,12 +455,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <dimension ref="C2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -482,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/Tablets Distribution - Maseru.xlsx
+++ b/Tablets Distribution - Maseru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Abia!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Lithabaneng!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Lithabaneng!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Motimposo!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Stadium Area'!$A$1:$H$1</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5570" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5547" uniqueCount="530">
   <si>
     <t>HGC7VVHT</t>
   </si>
@@ -1622,6 +1622,12 @@
   </si>
   <si>
     <t>2JCG</t>
+  </si>
+  <si>
+    <t>EA Code</t>
+  </si>
+  <si>
+    <t>Date Taken</t>
   </si>
 </sst>
 </file>
@@ -3267,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -5553,26 +5559,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7663,26 +7669,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9773,26 +9779,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="46" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11883,26 +11889,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13993,26 +13999,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16103,26 +16109,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18221,26 +18227,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20331,26 +20337,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22441,26 +22447,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24551,26 +24557,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:G35">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36603,25 +36609,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:B146"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -36635,15 +36642,18 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>528</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="2"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -36651,20 +36661,21 @@
         <v>441</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C33" si="0">CONCATENATE(G2,H2)</f>
+        <f>CONCATENATE(H2,I2)</f>
         <v>11V1DP102578</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -36672,20 +36683,21 @@
         <v>441</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H3,I3)</f>
         <v>11V1DP103933</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -36693,20 +36705,21 @@
         <v>441</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H4,I4)</f>
         <v>11V1DP103935</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -36714,20 +36727,21 @@
         <v>145</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H5,I5)</f>
         <v>HA0J3EH2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -36735,20 +36749,21 @@
         <v>145</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H6,I6)</f>
         <v>HA0JGGGU</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -36756,20 +36771,21 @@
         <v>145</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H7,I7)</f>
         <v>HA0JGKX5</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -36777,20 +36793,21 @@
         <v>145</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H8,I8)</f>
         <v>HA0JGSBG</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -36798,20 +36815,21 @@
         <v>145</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H9,I9)</f>
         <v>HA0JGUU2</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -36819,20 +36837,21 @@
         <v>145</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H10,I10)</f>
         <v>HA0JGUUC</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -36840,20 +36859,21 @@
         <v>145</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H11,I11)</f>
         <v>HA0JH39W</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -36861,20 +36881,21 @@
         <v>145</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H12,I12)</f>
         <v>HA0JH3G3</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -36882,20 +36903,21 @@
         <v>145</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H13,I13)</f>
         <v>HA0JH5F1</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -36903,20 +36925,21 @@
         <v>145</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H14,I14)</f>
         <v>HA0JH5R4</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -36924,20 +36947,21 @@
         <v>145</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H15,I15)</f>
         <v>HA0JH5WX</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -36945,20 +36969,21 @@
         <v>145</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H16,I16)</f>
         <v>HA0JH71N</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -36966,20 +36991,21 @@
         <v>145</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H17,I17)</f>
         <v>HA0JH7QM</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -36987,20 +37013,21 @@
         <v>145</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H18,I18)</f>
         <v>HA0JH9D4</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -37008,20 +37035,21 @@
         <v>145</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H19,I19)</f>
         <v>HA0JH9DW</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -37029,20 +37057,21 @@
         <v>145</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H20,I20)</f>
         <v>HA0JHAJX</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -37050,20 +37079,21 @@
         <v>145</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H21,I21)</f>
         <v>HA0JHAKF</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -37071,20 +37101,21 @@
         <v>145</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H22,I22)</f>
         <v>HA0JHAN0</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -37092,20 +37123,21 @@
         <v>145</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H23,I23)</f>
         <v>HA0JHBRD</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -37113,20 +37145,21 @@
         <v>145</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H24,I24)</f>
         <v>HA0JHDCM</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -37134,20 +37167,21 @@
         <v>145</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H25,I25)</f>
         <v>HA0JHDYT</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -37155,20 +37189,21 @@
         <v>145</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H26,I26)</f>
         <v>HA0JHE0T</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -37176,20 +37211,21 @@
         <v>145</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H27,I27)</f>
         <v>HA0JHE0U</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -37197,20 +37233,21 @@
         <v>145</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H28,I28)</f>
         <v>HA0JHEF2</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -37218,20 +37255,21 @@
         <v>145</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H29,I29)</f>
         <v>HA0JHEYP</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -37239,20 +37277,21 @@
         <v>145</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H30,I30)</f>
         <v>HA0JHFNW</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -37260,20 +37299,21 @@
         <v>145</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H31,I31)</f>
         <v>HA0JHFQL</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -37281,20 +37321,21 @@
         <v>145</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H32,I32)</f>
         <v>HA0JHJ1Q</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -37302,20 +37343,21 @@
         <v>145</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(H33,I33)</f>
         <v>HA0JHK1G</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -37323,1072 +37365,1121 @@
         <v>145</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" ref="C34:C66" si="1">CONCATENATE(G34,H34)</f>
+        <f>CONCATENATE(H34,I34)</f>
         <v>HA0JHLWP</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75">
-      <c r="A35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8">
+    <row r="35" spans="1:9">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f>CONCATENATE(H35,I35)</f>
+        <v>HA0JHLXH</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHLXH</v>
+        <f>CONCATENATE(H36,I36)</f>
+        <v>HA0JHLZN</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHLZN</v>
+        <f>CONCATENATE(H37,I37)</f>
+        <v>HA0JHR2X</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHR2X</v>
+        <f>CONCATENATE(H38,I38)</f>
+        <v>HA0JHU6C</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHU6C</v>
+        <f>CONCATENATE(H39,I39)</f>
+        <v>HA0JHU8U</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHU8U</v>
+        <f>CONCATENATE(H40,I40)</f>
+        <v>HA0JHVE7</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHVE7</v>
+        <f>CONCATENATE(H41,I41)</f>
+        <v>HA0JHX4P</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHX4P</v>
+        <f>CONCATENATE(H42,I42)</f>
+        <v>HA0JHX6Y</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHX6Y</v>
+        <f>CONCATENATE(H43,I43)</f>
+        <v>HA0JHZQX</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JHZQX</v>
+        <f>CONCATENATE(H44,I44)</f>
+        <v>HA0JJ0MT</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ0MT</v>
+        <f>CONCATENATE(H45,I45)</f>
+        <v>HA0JJ1VB</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ1VB</v>
+        <f>CONCATENATE(H46,I46)</f>
+        <v>HA0JJ2JU</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ2JU</v>
+        <f>CONCATENATE(H47,I47)</f>
+        <v>HA0JJ2Z5</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ2Z5</v>
+        <f>CONCATENATE(H48,I48)</f>
+        <v>HA0JJ3UL</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ3UL</v>
+        <f>CONCATENATE(H49,I49)</f>
+        <v>HA0JJ6EH</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ6EH</v>
+        <f>CONCATENATE(H50,I50)</f>
+        <v>HA0JJ6LG</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ6LG</v>
+        <f>CONCATENATE(H51,I51)</f>
+        <v>HA0JJ94T</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ94T</v>
+        <f>CONCATENATE(H52,I52)</f>
+        <v>HA0JJ9RM</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJ9RM</v>
+        <f>CONCATENATE(H53,I53)</f>
+        <v>HA0JJB2K</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJB2K</v>
+        <f>CONCATENATE(H54,I54)</f>
+        <v>HA0JJD68</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJD68</v>
+        <f>CONCATENATE(H55,I55)</f>
+        <v>HA0JJD92</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJD92</v>
+        <f>CONCATENATE(H56,I56)</f>
+        <v>HA0JJF10</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JJF10</v>
+        <f>CONCATENATE(H57,I57)</f>
+        <v>HA0JMSL6</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JMSL6</v>
+        <f>CONCATENATE(H58,I58)</f>
+        <v>HA0JMTA6</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JMTA6</v>
+        <f>CONCATENATE(H59,I59)</f>
+        <v>HA0JN0BT</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JN0BT</v>
+        <f>CONCATENATE(H60,I60)</f>
+        <v>HA0JNG8J</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JNG8J</v>
+        <f>CONCATENATE(H61,I61)</f>
+        <v>HA0JNGVW</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JNGVW</v>
+        <f>CONCATENATE(H62,I62)</f>
+        <v>HA0JNWAX</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JNWAX</v>
+        <f>CONCATENATE(H63,I63)</f>
+        <v>HA0JNWEM</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JNWEM</v>
+        <f>CONCATENATE(H64,I64)</f>
+        <v>HA0JNXGC</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JNXGC</v>
+        <f>CONCATENATE(H65,I65)</f>
+        <v>HA0JP0AX</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HA0JP0AX</v>
+        <f>CONCATENATE(H66,I66)</f>
+        <v>HA0JP67P</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" ref="C67:C99" si="2">CONCATENATE(G67,H67)</f>
-        <v>HA0JP67P</v>
+        <f>CONCATENATE(H67,I67)</f>
+        <v>HA0JP6SX</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JP6SX</v>
+        <f>CONCATENATE(H68,I68)</f>
+        <v>HA0JP8JJ</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18.75">
-      <c r="A69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f>CONCATENATE(H69,I69)</f>
+        <v>HA0JPAXX</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JP8JJ</v>
+        <f>CONCATENATE(H70,I70)</f>
+        <v>HA0JPBBU</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPAXX</v>
+        <f>CONCATENATE(H71,I71)</f>
+        <v>HA0JPBCU</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="3">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPBBU</v>
+        <f>CONCATENATE(H72,I72)</f>
+        <v>HA0JPCFP</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPBCU</v>
+        <f>CONCATENATE(H73,I73)</f>
+        <v>HA0JPCKW</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPCFP</v>
+        <f>CONCATENATE(H74,I74)</f>
+        <v>HA0JPFBN</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPCKW</v>
+        <f>CONCATENATE(H75,I75)</f>
+        <v>HA0JPGET</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPFBN</v>
+        <f>CONCATENATE(H76,I76)</f>
+        <v>HA0JPGFV</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPGET</v>
+        <f>CONCATENATE(H77,I77)</f>
+        <v>HA0JPSTM</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPGFV</v>
+        <f>CONCATENATE(H78,I78)</f>
+        <v>HA0JPVZH</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPSTM</v>
+        <f>CONCATENATE(H79,I79)</f>
+        <v>HA0JPYEZ</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPVZH</v>
+        <f>CONCATENATE(H80,I80)</f>
+        <v>HA0JQ13P</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="3">
-        <v>78</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>145</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JPYEZ</v>
+        <f>CONCATENATE(H81,I81)</f>
+        <v>HGC7VYMM</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="3">
-        <v>79</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>145</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HA0JQ13P</v>
+        <f>CONCATENATE(H82,I82)</f>
+        <v>HGEE2JC9</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="3">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGC7VYMM</v>
+        <f>CONCATENATE(H83,I83)</f>
+        <v>HGEE2JCW</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="3">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JC9</v>
+        <f>CONCATENATE(H84,I84)</f>
+        <v>HGEE2JD0</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="3">
         <v>82</v>
       </c>
@@ -38396,20 +38487,21 @@
         <v>398</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JCW</v>
+        <f>CONCATENATE(H85,I85)</f>
+        <v>HGEE2JD2</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="3"/>
+      <c r="H85" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H85" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="3">
         <v>83</v>
       </c>
@@ -38417,20 +38509,21 @@
         <v>398</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JD0</v>
+        <f>CONCATENATE(H86,I86)</f>
+        <v>HGEE2JDG</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="3"/>
+      <c r="H86" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H86" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="3">
         <v>84</v>
       </c>
@@ -38438,20 +38531,21 @@
         <v>398</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JD2</v>
+        <f>CONCATENATE(H87,I87)</f>
+        <v>HGEE2JDK</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="3">
         <v>85</v>
       </c>
@@ -38459,20 +38553,21 @@
         <v>398</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JDG</v>
+        <f>CONCATENATE(H88,I88)</f>
+        <v>HGEE2JEQ</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="3">
         <v>86</v>
       </c>
@@ -38480,20 +38575,21 @@
         <v>398</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JDK</v>
+        <f>CONCATENATE(H89,I89)</f>
+        <v>HGEE2JFC</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H89" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="3">
         <v>87</v>
       </c>
@@ -38501,294 +38597,307 @@
         <v>398</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JEQ</v>
+        <f>CONCATENATE(H90,I90)</f>
+        <v>HGEE2JFM</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="3"/>
+      <c r="H90" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H90" s="8" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="3">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JFC</v>
+        <f>CONCATENATE(H91,I91)</f>
+        <v>HGEE2JFP</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H91" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JFM</v>
+        <f>CONCATENATE(H92,I92)</f>
+        <v>HGEE2JFX</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="3"/>
+      <c r="H92" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JFP</v>
+        <f>CONCATENATE(H93,I93)</f>
+        <v>HGEE2JGM</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H93" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JFX</v>
+        <f>CONCATENATE(H94,I94)</f>
+        <v>HGEE2JGP</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="3"/>
+      <c r="H94" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H94" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C95" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JGM</v>
+        <f>CONCATENATE(H95,I95)</f>
+        <v>HJF0TH18</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="G95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HGEE2JGP</v>
+        <f>CONCATENATE(H96,I96)</f>
+        <v>HJF0THB7</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="G96" s="3"/>
+      <c r="H96" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>146</v>
+        <v>398</v>
       </c>
       <c r="C97" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HJF0TH18</v>
+        <f>CONCATENATE(H97,I97)</f>
+        <v>HJF0THC9</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="3"/>
+      <c r="H97" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C98" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HJF0THB7</v>
+        <f>CONCATENATE(H98,I98)</f>
+        <v>HJF0THC9</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="3"/>
+      <c r="H98" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C99" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HJF0THC9</v>
+        <f>CONCATENATE(H99,I99)</f>
+        <v>HJF0THE3</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="3"/>
+      <c r="H99" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f t="shared" ref="C100:C132" si="3">CONCATENATE(G100,H100)</f>
-        <v>HJF0THC9</v>
+        <f>CONCATENATE(H100,I100)</f>
+        <v>HJF0THEM</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C101" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THE3</v>
+        <f>CONCATENATE(H101,I101)</f>
+        <v>HJF0THGR</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="3"/>
+      <c r="H101" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H101" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="3">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THEM</v>
+        <f>CONCATENATE(H102,I102)</f>
+        <v>HJF0THH4</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H102" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="18.75">
-      <c r="A103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I102" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="3">
+        <v>99</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f>CONCATENATE(H103,I103)</f>
+        <v>HJF0THH5</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="3">
         <v>100</v>
       </c>
@@ -38796,972 +38905,929 @@
         <v>146</v>
       </c>
       <c r="C104" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THGR</v>
+        <f>CONCATENATE(H104,I104)</f>
+        <v>HJF0THJC</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="3"/>
+      <c r="H104" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H104" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="3">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THH4</v>
+        <f>CONCATENATE(H105,I105)</f>
+        <v>HJF0THJD</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="3"/>
+      <c r="H105" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H105" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THH5</v>
+        <f>CONCATENATE(H106,I106)</f>
+        <v>HJF0THLL</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="3"/>
+      <c r="H106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H106" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THJC</v>
+        <f>CONCATENATE(H107,I107)</f>
+        <v>HJF0THM9</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="3"/>
+      <c r="H107" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H107" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THJD</v>
+        <f>CONCATENATE(H108,I108)</f>
+        <v>HJF0THMB</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="3"/>
+      <c r="H108" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H108" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THLL</v>
+        <f>CONCATENATE(H109,I109)</f>
+        <v>HJF0THML</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="3"/>
+      <c r="H109" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H109" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THM9</v>
+        <f>CONCATENATE(H110,I110)</f>
+        <v>HJF0THMQ</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="3"/>
+      <c r="H110" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H110" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THMB</v>
+        <f>CONCATENATE(H111,I111)</f>
+        <v>HJF0THMQ</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H111" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THML</v>
+        <f>CONCATENATE(H112,I112)</f>
+        <v>HJF0THMW</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H112" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="3">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THMQ</v>
+        <f>CONCATENATE(H113,I113)</f>
+        <v>HJF0THMW</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H113" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="3">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THMQ</v>
+        <f>CONCATENATE(H114,I114)</f>
+        <v>HJF0THN6</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="3"/>
+      <c r="H114" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H114" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THMW</v>
+        <f>CONCATENATE(H115,I115)</f>
+        <v>HJF0THNM</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H115" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THMW</v>
+        <f>CONCATENATE(H116,I116)</f>
+        <v>HJF0THP1</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="3"/>
+      <c r="H116" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H116" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THN6</v>
+        <f>CONCATENATE(H117,I117)</f>
+        <v>HJF0THP3</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="3"/>
+      <c r="H117" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H117" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="3">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THNM</v>
+        <f>CONCATENATE(H118,I118)</f>
+        <v>HJH0AHJ8</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="G118" s="3"/>
+      <c r="H118" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="3">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THP1</v>
+        <f>CONCATENATE(H119,I119)</f>
+        <v>HJH0D08X</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="G119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="3">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJF0THP3</v>
+        <f>CONCATENATE(H120,I120)</f>
+        <v>HJH0D0AN</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="G120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="3">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0AHJ8</v>
+        <f>CONCATENATE(H121,I121)</f>
+        <v>HJH0D0NZ</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="3">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0D08X</v>
+        <f>CONCATENATE(H122,I122)</f>
+        <v>HJH0DAH6</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="G122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="3">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0D0AN</v>
+        <f>CONCATENATE(H123,I123)</f>
+        <v>HJH0DAND</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="3">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C124" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0D0NZ</v>
+        <f>CONCATENATE(H124,I124)</f>
+        <v>HJH0DAWT</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="G124" s="3"/>
+      <c r="H124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="3">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0DAH6</v>
+        <f>CONCATENATE(H125,I125)</f>
+        <v>HJH0DB1S</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="G125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="3">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0DAND</v>
+        <f>CONCATENATE(H126,I126)</f>
+        <v>HJH0DB4G</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="3">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0DAWT</v>
+        <f>CONCATENATE(H127,I127)</f>
+        <v>M7043GVCJDG2707201506522</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="3">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0DB1S</v>
+        <f>CONCATENATE(H128,I128)</f>
+        <v>M7043GVCJDG2707201507342</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="3">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>HJH0DB4G</v>
+        <f>CONCATENATE(H129,I129)</f>
+        <v>M7043GVCJDG2707201510141</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
-      <c r="G129" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="3">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>M7043GVCJDG2707201506522</v>
+        <f>CONCATENATE(H130,I130)</f>
+        <v>M7043GVCJDG2707201512168</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="3">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>M7043GVCJDG2707201507342</v>
+        <f>CONCATENATE(H131,I131)</f>
+        <v>M7043GVCJDG2707201513153</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H131" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="3">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>M7043GVCJDG2707201510141</v>
+        <f>CONCATENATE(H132,I132)</f>
+        <v>M7043GVCJDG2707201513255</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="3">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" ref="C133:C149" si="4">CONCATENATE(G133,H133)</f>
-        <v>M7043GVCJDG2707201512168</v>
+        <f>CONCATENATE(H133,I133)</f>
+        <v>M7043GVCJDG2707201514633</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H133" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="3">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>M7043GVCJDG2707201513153</v>
+        <f>CONCATENATE(H134,I134)</f>
+        <v>HJH0DADS</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="3">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>M7043GVCJDG2707201513255</v>
+        <f>CONCATENATE(H135,I135)</f>
+        <v>HJH0D085</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="G135" s="3"/>
+      <c r="H135" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="3">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>M7043GVCJDG2707201514633</v>
+        <f>CONCATENATE(H136,I136)</f>
+        <v>HJH0D0DR</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="18.75">
-      <c r="A137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="G136" s="3"/>
+      <c r="H136" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="3" t="str">
+        <f>CONCATENATE(H137,I137)</f>
+        <v>HJH0DB4E</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="3">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0DADS</v>
+        <f>CONCATENATE(H138,I138)</f>
+        <v>HJH0D0PJ</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="G138" s="3"/>
+      <c r="H138" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="3">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0D085</v>
+        <f>CONCATENATE(H139,I139)</f>
+        <v>HJH0D0D2</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="G139" s="3"/>
+      <c r="H139" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="3">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0D0DR</v>
+        <f>CONCATENATE(H140,I140)</f>
+        <v>HJF0THH0</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="G140" s="3"/>
+      <c r="H140" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="3">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0DB4E</v>
+        <f>CONCATENATE(H141,I141)</f>
+        <v>HJF0THMC</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="G141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="3">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0D0PJ</v>
+        <f>CONCATENATE(H142,I142)</f>
+        <v>HJH0DB40</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="G142" s="3"/>
+      <c r="H142" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="3">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0D0D2</v>
+        <f>CONCATENATE(H143,I143)</f>
+        <v>HGEE2JEY</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="G143" s="3"/>
+      <c r="H143" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="3">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJF0THH0</v>
+        <f>CONCATENATE(H144,I144)</f>
+        <v>HGEE2JCA</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="G144" s="3"/>
+      <c r="H144" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="3">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJF0THMC</v>
+        <f>CONCATENATE(H145,I145)</f>
+        <v>HGEE2JCG</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="3">
-        <v>141</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HJH0DB40</v>
-      </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="3">
-        <v>142</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C147" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HGEE2JEY</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3" t="s">
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="H147" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="3">
-        <v>143</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C148" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HGEE2JCA</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="3">
-        <v>144</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C149" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>HGEE2JCG</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H149" s="8" t="s">
+      <c r="I145" s="8" t="s">
         <v>527</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:G1 F35:G35 F69:G69 F103:G103 F137:G137">
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="HJF0">
-      <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="HJF0">
+      <formula>NOT(ISERROR(SEARCH("HJF0",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="HJH0">
-      <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="HJH0">
+      <formula>NOT(ISERROR(SEARCH("HJH0",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.26041666666666669" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42004,26 +42070,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:G1 F35:G35">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:G69">
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="HJF0">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="HJF0">
       <formula>NOT(ISERROR(SEARCH("HJF0",F103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="HJH0">
+    <cfRule type="containsText" dxfId="62" priority="2" operator="containsText" text="HJH0">
       <formula>NOT(ISERROR(SEARCH("HJH0",F103)))</formula>
     </cfRule>
   </conditionalFormatting>
